--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\TCCpUCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/elec/tccpucd/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1A39FD-A5BE-7047-9337-3E51DF52CE8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="98" windowWidth="17220" windowHeight="8205"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="17220" windowHeight="8200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="TCCpUCD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -104,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,7 +258,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -268,16 +280,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -368,6 +381,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -403,6 +433,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -578,22 +625,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="15">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -601,88 +651,88 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.19921875" customWidth="1"/>
-    <col min="2" max="2" width="11.53125" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -693,7 +743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -708,7 +758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -720,7 +770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -732,7 +782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -744,7 +794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
@@ -762,7 +812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -770,18 +820,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.86328125" customWidth="1"/>
-    <col min="2" max="2" width="11.86328125" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>

--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/elec/tccpucd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/tccpucd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1A39FD-A5BE-7047-9337-3E51DF52CE8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE300AF-81C3-9242-B8CC-F5A8E14C1CBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="460" windowWidth="17220" windowHeight="8200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
